--- a/CoffeeStore/ExcelBill/BL00003.xlsx
+++ b/CoffeeStore/ExcelBill/BL00003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -35,13 +35,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>01/05/2022</t>
+    <t>05/05/2022</t>
   </si>
   <si>
     <t>Staff:</t>
   </si>
   <si>
-    <t>Võ Văn Hùng</t>
+    <t>Thiều Việt Hoàng</t>
   </si>
   <si>
     <t>Type:</t>
@@ -71,46 +71,40 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Chocolate Milk Tea</t>
+    <t>Carrot Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Size: L - Status: COLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Golden Pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Konjac Caramel Jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diamond Jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Fruit Diamond Jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pudding</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Lemon Yogurt</t>
   </si>
   <si>
     <t xml:space="preserve"> - Size: S - Status: COLD</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Golden Pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Brown Sugar Pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Konjac Caramel Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Diamond Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Fruit Diamond Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Pudding</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Red Bean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Cookies</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Carrot Juice</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
-    <t>Lemon Yogurt</t>
+    <t>Pearl Black Tea</t>
   </si>
   <si>
     <t>Total:</t>
@@ -767,10 +761,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="n" s="7">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" t="n" s="7">
-        <v>79000.0</v>
+        <v>228000.0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -816,7 +810,7 @@
         <v>1.0</v>
       </c>
       <c r="G17" t="n" s="8">
-        <v>8000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -847,70 +841,70 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" t="s" s="8">
+      <c r="A20" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="F20" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G20" t="n" s="8">
-        <v>6000.0</v>
+      <c r="B20" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="F20" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G20" t="n" s="7">
+        <v>47000.0</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
-      <c r="B21" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="F21" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G21" t="n" s="8">
-        <v>10000.0</v>
+      <c r="B21" t="s">
+        <v>28</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
       <c r="B22" t="s" s="8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n" s="8">
         <v>1.0</v>
       </c>
       <c r="G22" t="n" s="8">
+        <v>6000.0</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="F23" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G23" t="n" s="8">
         <v>8000.0</v>
-      </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="F23" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G23" t="n" s="7">
-        <v>35000.0</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
-      <c r="B24" t="s">
-        <v>20</v>
+      <c r="B24" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="F24" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G24" t="n" s="8">
+        <v>6000.0</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="13"/>
       <c r="B25" t="s" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n" s="8">
         <v>1.0</v>
@@ -923,61 +917,61 @@
     <row r="26">
       <c r="A26" s="13"/>
       <c r="B26" t="s" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n" s="8">
         <v>1.0</v>
       </c>
       <c r="G26" t="n" s="8">
-        <v>8000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="F27" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n" s="8">
-        <v>6000.0</v>
+      <c r="A27" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="F27" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G27" t="n" s="7">
+        <v>51000.0</v>
       </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="F28" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G28" t="n" s="7">
-        <v>41000.0</v>
+      <c r="A28" s="13"/>
+      <c r="B28" t="s">
+        <v>28</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
-      <c r="B29" t="s">
-        <v>20</v>
+      <c r="B29" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="F29" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G29" t="n" s="8">
+        <v>6000.0</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
       <c r="B30" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" t="n" s="8">
         <v>1.0</v>
       </c>
       <c r="G30" t="n" s="8">
-        <v>6000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -990,7 +984,7 @@
         <v>1.0</v>
       </c>
       <c r="G31" t="n" s="8">
-        <v>8000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I31" s="10"/>
     </row>
@@ -1027,17 +1021,17 @@
     <row r="35">
       <c r="A35" s="13"/>
       <c r="F35" t="s" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H35" t="n" s="9">
-        <v>155000.0</v>
+        <v>326000.0</v>
       </c>
       <c r="I35" s="10"/>
     </row>
     <row r="36">
       <c r="A36" s="13"/>
       <c r="F36" t="s" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H36" t="n" s="9">
         <v>500000.0</v>
@@ -1047,10 +1041,10 @@
     <row r="37">
       <c r="A37" s="13"/>
       <c r="F37" t="s" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H37" t="n" s="9">
-        <v>345000.0</v>
+        <v>174000.0</v>
       </c>
       <c r="I37" s="10"/>
     </row>
@@ -1061,14 +1055,14 @@
     <row r="39">
       <c r="A39" s="13"/>
       <c r="C39" t="s" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I39" s="10"/>
     </row>
     <row r="40">
       <c r="A40" s="13"/>
       <c r="C40" t="s" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I40" s="10"/>
     </row>
@@ -1113,12 +1107,12 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G21:I21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:I24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="B26:E26"/>
@@ -1126,8 +1120,8 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:I28"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="B31:E31"/>
